--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.49090584913611</v>
+        <v>4.463828221421733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3141618195750892</v>
+        <v>0.3129905066275584</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1138028664631439</v>
+        <v>0.1117897260731779</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.426548442036931</v>
+        <v>4.429852253178444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3082123999493429</v>
+        <v>0.3084329796617245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.120135425490082</v>
+        <v>0.12021452761062</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.790404871613303</v>
+        <v>12.69894382127431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2635051521555297</v>
+        <v>0.8030490186484337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0969166626270991</v>
+        <v>0.289565298255904</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.44094279658959</v>
+        <v>12.66534750222647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3091771703340267</v>
+        <v>0.8003902737991178</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1204419144838911</v>
+        <v>0.2880310731301479</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.813364223654183</v>
+        <v>12.41839095035273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2652067590492863</v>
+        <v>0.7871796649994593</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0976671400351294</v>
+        <v>0.283363791218346</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.539468636660738</v>
+        <v>12.67560050359704</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3167696790945873</v>
+        <v>0.8017546017956334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1127831650499797</v>
+        <v>0.2892970784420941</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.252340173808486</v>
+        <v>12.64691291466017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2972281321096408</v>
+        <v>0.799149519408803</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1094594542871472</v>
+        <v>0.2878849084072964</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.463828221421733</v>
+        <v>12.77741472986624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3129905066275584</v>
+        <v>0.8085431942598119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1117897260731779</v>
+        <v>0.2902251360128444</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.4282180347778</v>
+        <v>12.64651638963103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3083176151603988</v>
+        <v>0.7992770502022666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1202106728884791</v>
+        <v>0.2873368909194435</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.429852253178444</v>
+        <v>12.7884394292311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3084329796617245</v>
+        <v>0.8082629793343348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.12021452761062</v>
+        <v>0.2898569073598357</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.328890552922555</v>
+        <v>6.724025118477194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3799322129172439</v>
+        <v>0.5652495349517803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09716680042837743</v>
+        <v>0.1630816379914531</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.269725897286039</v>
+        <v>14.06240914945512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6262732877864481</v>
+        <v>1.021451344997408</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198179285839301</v>
+        <v>0.3639568697856551</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.586096264832431</v>
+        <v>14.70112951218206</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6531790376748395</v>
+        <v>1.080271621456061</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2048844319852866</v>
+        <v>0.3779768707130808</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.528616728493468</v>
+        <v>10.43030442791959</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6500265256130546</v>
+        <v>0.7181181458486762</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1918772577960227</v>
+        <v>0.2329317117362308</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.724025118477194</v>
+        <v>6.798075376860778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5652495349517803</v>
+        <v>0.571470464380908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1630816379914531</v>
+        <v>0.1617823658838295</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.06240914945512</v>
+        <v>13.82635987418824</v>
       </c>
       <c r="C11" t="n">
-        <v>1.021451344997408</v>
+        <v>0.9999820143827621</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3639568697856551</v>
+        <v>0.3587759655565259</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.70112951218206</v>
+        <v>14.31422660432458</v>
       </c>
       <c r="C12" t="n">
-        <v>1.080271621456061</v>
+        <v>1.044491314081285</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3779768707130808</v>
+        <v>0.3692790640949673</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.43030442791959</v>
+        <v>10.48878813529452</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7181181458486762</v>
+        <v>0.7232410575208083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2329317117362308</v>
+        <v>0.2339776943526035</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.86350088149053</v>
+        <v>13.8752922360379</v>
       </c>
       <c r="C11" t="n">
-        <v>1.003334721250333</v>
+        <v>1.004397912083549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3595271775105641</v>
+        <v>0.3597531333271535</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.8752922360379</v>
+        <v>13.86079425866171</v>
       </c>
       <c r="C11" t="n">
-        <v>1.004397912083549</v>
+        <v>1.00309905619104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3597531333271535</v>
+        <v>0.3595102976089764</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.86079425866171</v>
+        <v>13.83457030034959</v>
       </c>
       <c r="C11" t="n">
-        <v>1.00309905619104</v>
+        <v>1.000696202335787</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3595102976089764</v>
+        <v>0.3588317804779417</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.83457030034959</v>
+        <v>13.8917810322689</v>
       </c>
       <c r="C11" t="n">
-        <v>1.000696202335787</v>
+        <v>1.005902173628327</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3588317804779417</v>
+        <v>0.3601406915816602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.69894382127431</v>
+        <v>12.71283615025731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8030490186484337</v>
+        <v>0.8040860632302436</v>
       </c>
       <c r="D2" t="n">
-        <v>0.289565298255904</v>
+        <v>0.2898656390259972</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.76914592887007</v>
+        <v>12.77095860416436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8070290817176397</v>
+        <v>0.8071348119881021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2899695424206131</v>
+        <v>0.2899984703683333</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.41839095035273</v>
+        <v>10.05109320850139</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7871796649994593</v>
+        <v>0.6461064609772937</v>
       </c>
       <c r="D4" t="n">
-        <v>0.283363791218346</v>
+        <v>0.2297118170905358</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.67560050359704</v>
+        <v>12.70977393984471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8017546017956334</v>
+        <v>0.8038805078105098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2892970784420941</v>
+        <v>0.2898078617830378</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.64691291466017</v>
+        <v>12.62844245613858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.799149519408803</v>
+        <v>0.7978116424128706</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2878849084072964</v>
+        <v>0.287424269622392</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.77741472986624</v>
+        <v>12.52936282275802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8085431942598119</v>
+        <v>0.791210518719907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2902251360128444</v>
+        <v>0.2845375217366056</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.79603674613635</v>
+        <v>12.76980754889861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8085364959177761</v>
+        <v>0.8069512849516575</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2905170780118358</v>
+        <v>0.2900204232376358</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.78296793812749</v>
+        <v>12.7699987095262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8079614979137923</v>
+        <v>0.8069438103453249</v>
       </c>
       <c r="D9" t="n">
-        <v>0.290389944277094</v>
+        <v>0.2898424890628954</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.8917810322689</v>
+        <v>13.90829496704223</v>
       </c>
       <c r="C11" t="n">
-        <v>1.005902173628327</v>
+        <v>1.007406694726333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3601406915816602</v>
+        <v>0.3605287416357239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.21185809067641</v>
+        <v>14.16222067982931</v>
       </c>
       <c r="C12" t="n">
-        <v>1.035108291514786</v>
+        <v>1.030603190805783</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3671490168859236</v>
+        <v>0.366089264838521</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.71283615025731</v>
+        <v>25.41099074135457</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8040860632302436</v>
+        <v>0.8035142540936183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2898656390259972</v>
+        <v>0.2897004370042019</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.77095860416436</v>
+        <v>25.54257295888969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8071348119881021</v>
+        <v>0.8071636295370678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2899984703683333</v>
+        <v>0.2900079940407636</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.05109320850139</v>
+        <v>23.30977381098691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6461064609772937</v>
+        <v>0.7432739244172573</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2297118170905358</v>
+        <v>0.2662822529766474</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.70977393984471</v>
+        <v>25.41769119392074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8038805078105098</v>
+        <v>0.8038130313064147</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2898078617830378</v>
+        <v>0.2897816394027793</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.62844245613858</v>
+        <v>25.38106488171666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7978116424128706</v>
+        <v>0.8021548633541873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.287424269622392</v>
+        <v>0.288930938730777</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.52936282275802</v>
+        <v>26.06707102671041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.791210518719907</v>
+        <v>0.8229928709663363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2845375217366056</v>
+        <v>0.296122870444648</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.76980754889861</v>
+        <v>25.53003395179223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8069512849516575</v>
+        <v>0.8066929015079625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2900204232376358</v>
+        <v>0.2899096996318009</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.7699987095262</v>
+        <v>25.54318706279683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8069438103453249</v>
+        <v>0.8070824542385427</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2898424890628954</v>
+        <v>0.2899927949261719</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.798075376860778</v>
+        <v>13.59615075372154</v>
       </c>
       <c r="C10" t="n">
         <v>0.571470464380908</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.90829496704223</v>
+        <v>27.74256890812536</v>
       </c>
       <c r="C11" t="n">
-        <v>1.007406694726333</v>
+        <v>1.004034674825075</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3605287416357239</v>
+        <v>0.3596688471860625</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.16222067982931</v>
+        <v>28.32444135965863</v>
       </c>
       <c r="C12" t="n">
         <v>1.030603190805783</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.45115379248832</v>
+        <v>20.90230758497665</v>
       </c>
       <c r="C13" t="n">
         <v>0.721298801716965</v>

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_validação.xlsx
+++ b/Modelos em Python/14_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="D11" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="12">
